--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
@@ -23913,7 +23913,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25060,7 +25060,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25439,7 +25439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28102,7 +28102,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28860,7 +28860,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29239,7 +29239,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29997,7 +29997,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30376,7 +30376,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30755,7 +30755,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31515,7 +31515,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31896,7 +31896,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32275,7 +32275,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32654,7 +32654,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -33033,7 +33033,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33412,7 +33412,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34170,7 +34170,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34549,7 +34549,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35309,7 +35309,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35688,7 +35688,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -36069,7 +36069,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36448,7 +36448,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37208,7 +37208,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37587,7 +37587,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37966,7 +37966,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39103,7 +39103,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39863,7 +39863,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40242,7 +40242,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40621,7 +40621,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -41000,7 +41000,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41381,7 +41381,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41760,7 +41760,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42139,7 +42139,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42520,7 +42520,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43278,7 +43278,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43657,7 +43657,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -44036,7 +44036,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44794,7 +44794,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45173,7 +45173,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45552,7 +45552,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45931,7 +45931,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46310,7 +46310,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -47070,7 +47070,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47453,7 +47453,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47832,7 +47832,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48213,7 +48213,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48594,7 +48594,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48973,7 +48973,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49352,7 +49352,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49731,7 +49731,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -50110,7 +50110,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50489,7 +50489,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50868,7 +50868,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51247,7 +51247,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51626,7 +51626,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -52005,7 +52005,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52384,7 +52384,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53174,7 +53174,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
@@ -23913,7 +23913,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25060,7 +25060,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25439,7 +25439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28102,7 +28102,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28860,7 +28860,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29239,7 +29239,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29997,7 +29997,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30376,7 +30376,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30755,7 +30755,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31515,7 +31515,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31896,7 +31896,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32275,7 +32275,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32654,7 +32654,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -33033,7 +33033,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33412,7 +33412,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34170,7 +34170,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34549,7 +34549,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35309,7 +35309,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35688,7 +35688,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -36069,7 +36069,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36448,7 +36448,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37208,7 +37208,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37587,7 +37587,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37966,7 +37966,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39103,7 +39103,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39863,7 +39863,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40242,7 +40242,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40621,7 +40621,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -41000,7 +41000,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41381,7 +41381,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41760,7 +41760,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42139,7 +42139,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42520,7 +42520,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43278,7 +43278,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43657,7 +43657,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -44036,7 +44036,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44794,7 +44794,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45173,7 +45173,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45552,7 +45552,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45931,7 +45931,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46310,7 +46310,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -47070,7 +47070,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47453,7 +47453,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47832,7 +47832,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48213,7 +48213,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48594,7 +48594,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48973,7 +48973,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49352,7 +49352,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49731,7 +49731,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -50110,7 +50110,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50489,7 +50489,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50868,7 +50868,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51247,7 +51247,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51626,7 +51626,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -52005,7 +52005,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52384,7 +52384,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53174,7 +53174,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
@@ -23913,7 +23913,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25060,7 +25060,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25439,7 +25439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28102,7 +28102,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28860,7 +28860,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29239,7 +29239,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29997,7 +29997,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30376,7 +30376,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30755,7 +30755,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31515,7 +31515,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31896,7 +31896,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32275,7 +32275,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32654,7 +32654,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -33033,7 +33033,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33412,7 +33412,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34170,7 +34170,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34549,7 +34549,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35309,7 +35309,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35688,7 +35688,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -36069,7 +36069,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36448,7 +36448,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37208,7 +37208,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37587,7 +37587,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37966,7 +37966,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39103,7 +39103,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39863,7 +39863,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40242,7 +40242,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40621,7 +40621,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -41000,7 +41000,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41381,7 +41381,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41760,7 +41760,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42139,7 +42139,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42520,7 +42520,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43278,7 +43278,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43657,7 +43657,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -44036,7 +44036,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44794,7 +44794,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45173,7 +45173,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45552,7 +45552,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45931,7 +45931,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46310,7 +46310,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -47070,7 +47070,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47453,7 +47453,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47832,7 +47832,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48213,7 +48213,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48594,7 +48594,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48973,7 +48973,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49352,7 +49352,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49731,7 +49731,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -50110,7 +50110,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50489,7 +50489,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50868,7 +50868,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51247,7 +51247,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51626,7 +51626,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -52005,7 +52005,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52384,7 +52384,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53174,7 +53174,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q3_Export.xlsx
@@ -23913,7 +23913,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25060,7 +25060,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25439,7 +25439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26584,7 +26584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28102,7 +28102,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28860,7 +28860,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29239,7 +29239,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29997,7 +29997,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30376,7 +30376,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30755,7 +30755,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31515,7 +31515,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31896,7 +31896,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32275,7 +32275,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32654,7 +32654,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -33033,7 +33033,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33412,7 +33412,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34170,7 +34170,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34549,7 +34549,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35309,7 +35309,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35688,7 +35688,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -36069,7 +36069,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36448,7 +36448,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36827,7 +36827,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37208,7 +37208,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37587,7 +37587,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37966,7 +37966,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39103,7 +39103,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39863,7 +39863,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40242,7 +40242,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40621,7 +40621,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -41000,7 +41000,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41381,7 +41381,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41760,7 +41760,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42139,7 +42139,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42520,7 +42520,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42899,7 +42899,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43278,7 +43278,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43657,7 +43657,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -44036,7 +44036,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44794,7 +44794,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45173,7 +45173,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45552,7 +45552,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45931,7 +45931,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46310,7 +46310,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -47070,7 +47070,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47453,7 +47453,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47832,7 +47832,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48213,7 +48213,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48594,7 +48594,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48973,7 +48973,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49352,7 +49352,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49731,7 +49731,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -50110,7 +50110,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50489,7 +50489,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50868,7 +50868,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51247,7 +51247,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51626,7 +51626,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -52005,7 +52005,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52384,7 +52384,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53174,7 +53174,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
